--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.129852333333333</v>
+        <v>0.6738823333333332</v>
       </c>
       <c r="H2">
-        <v>3.389557</v>
+        <v>2.021647</v>
       </c>
       <c r="I2">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348914</v>
       </c>
       <c r="J2">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348916</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.759559666666667</v>
+        <v>8.947221000000001</v>
       </c>
       <c r="N2">
-        <v>23.278679</v>
+        <v>26.841663</v>
       </c>
       <c r="O2">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="P2">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="Q2">
-        <v>8.767156595022556</v>
+        <v>6.029374164329</v>
       </c>
       <c r="R2">
-        <v>78.904409355203</v>
+        <v>54.26436747896099</v>
       </c>
       <c r="S2">
-        <v>0.01532209143586548</v>
+        <v>0.01039078890306821</v>
       </c>
       <c r="T2">
-        <v>0.01532209143586548</v>
+        <v>0.01039078890306821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.129852333333333</v>
+        <v>0.6738823333333332</v>
       </c>
       <c r="H3">
-        <v>3.389557</v>
+        <v>2.021647</v>
       </c>
       <c r="I3">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348914</v>
       </c>
       <c r="J3">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348916</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>104.103916</v>
       </c>
       <c r="O3">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="P3">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="Q3">
-        <v>39.20735080057911</v>
+        <v>23.38459660773911</v>
       </c>
       <c r="R3">
-        <v>352.866157205212</v>
+        <v>210.461369469652</v>
       </c>
       <c r="S3">
-        <v>0.06852148782942792</v>
+        <v>0.04030010417531676</v>
       </c>
       <c r="T3">
-        <v>0.06852148782942792</v>
+        <v>0.04030010417531676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.129852333333333</v>
+        <v>0.6738823333333332</v>
       </c>
       <c r="H4">
-        <v>3.389557</v>
+        <v>2.021647</v>
       </c>
       <c r="I4">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348914</v>
       </c>
       <c r="J4">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348916</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.578358333333332</v>
+        <v>14.549723</v>
       </c>
       <c r="N4">
-        <v>28.735075</v>
+        <v>43.649169</v>
       </c>
       <c r="O4">
-        <v>0.1827403706251221</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="P4">
-        <v>0.182740370625122</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="Q4">
-        <v>10.82213051241944</v>
+        <v>9.804801284593665</v>
       </c>
       <c r="R4">
-        <v>97.399174611775</v>
+        <v>88.24321156134299</v>
       </c>
       <c r="S4">
-        <v>0.01891350649950765</v>
+        <v>0.01689721314485429</v>
       </c>
       <c r="T4">
-        <v>0.01891350649950765</v>
+        <v>0.01689721314485429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.129852333333333</v>
+        <v>0.6738823333333332</v>
       </c>
       <c r="H5">
-        <v>3.389557</v>
+        <v>2.021647</v>
       </c>
       <c r="I5">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348914</v>
       </c>
       <c r="J5">
-        <v>0.103499333151224</v>
+        <v>0.06826474584348916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.375896</v>
+        <v>0.5826356666666667</v>
       </c>
       <c r="N5">
-        <v>1.127688</v>
+        <v>1.747907</v>
       </c>
       <c r="O5">
-        <v>0.007171518538563155</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="P5">
-        <v>0.007171518538563154</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="Q5">
-        <v>0.4247069726906667</v>
+        <v>0.3926278825365555</v>
       </c>
       <c r="R5">
-        <v>3.822362754216</v>
+        <v>3.533650942829</v>
       </c>
       <c r="S5">
-        <v>0.0007422473864229269</v>
+        <v>0.0006766396202498799</v>
       </c>
       <c r="T5">
-        <v>0.0007422473864229268</v>
+        <v>0.00067663962024988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8.161021</v>
       </c>
       <c r="I6">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118824</v>
       </c>
       <c r="J6">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118825</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.759559666666667</v>
+        <v>8.947221000000001</v>
       </c>
       <c r="N6">
-        <v>23.278679</v>
+        <v>26.841663</v>
       </c>
       <c r="O6">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="P6">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="Q6">
-        <v>21.10864313013989</v>
+        <v>24.339486157547</v>
       </c>
       <c r="R6">
-        <v>189.977788171259</v>
+        <v>219.055375417923</v>
       </c>
       <c r="S6">
-        <v>0.03689092998643137</v>
+        <v>0.04194572368198141</v>
       </c>
       <c r="T6">
-        <v>0.03689092998643136</v>
+        <v>0.04194572368198141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8.161021</v>
       </c>
       <c r="I7">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118824</v>
       </c>
       <c r="J7">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>104.103916</v>
       </c>
       <c r="O7">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="P7">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="Q7">
         <v>94.39936051758177</v>
@@ -883,10 +883,10 @@
         <v>849.594244658236</v>
       </c>
       <c r="S7">
-        <v>0.1649788751530674</v>
+        <v>0.1626841859518243</v>
       </c>
       <c r="T7">
-        <v>0.1649788751530674</v>
+        <v>0.1626841859518243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8.161021</v>
       </c>
       <c r="I8">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118824</v>
       </c>
       <c r="J8">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.578358333333332</v>
+        <v>14.549723</v>
       </c>
       <c r="N8">
-        <v>28.735075</v>
+        <v>43.649169</v>
       </c>
       <c r="O8">
-        <v>0.1827403706251221</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="P8">
-        <v>0.182740370625122</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="Q8">
-        <v>26.05639450128611</v>
+        <v>39.58019831572766</v>
       </c>
       <c r="R8">
-        <v>234.507550511575</v>
+        <v>356.221784841549</v>
       </c>
       <c r="S8">
-        <v>0.04553796372980847</v>
+        <v>0.06821097417928645</v>
       </c>
       <c r="T8">
-        <v>0.04553796372980846</v>
+        <v>0.06821097417928647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8.161021</v>
       </c>
       <c r="I9">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118824</v>
       </c>
       <c r="J9">
-        <v>0.2491948745317264</v>
+        <v>0.2755723548118825</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.375896</v>
+        <v>0.5826356666666667</v>
       </c>
       <c r="N9">
-        <v>1.127688</v>
+        <v>1.747907</v>
       </c>
       <c r="O9">
-        <v>0.007171518538563155</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="P9">
-        <v>0.007171518538563154</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="Q9">
-        <v>1.022565049938667</v>
+        <v>1.584967303671889</v>
       </c>
       <c r="R9">
-        <v>9.203085449448</v>
+        <v>14.264705733047</v>
       </c>
       <c r="S9">
-        <v>0.001787105662419195</v>
+        <v>0.002731470998790242</v>
       </c>
       <c r="T9">
-        <v>0.001787105662419195</v>
+        <v>0.002731470998790242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.932861</v>
+        <v>3.560888666666667</v>
       </c>
       <c r="H10">
-        <v>8.798583000000001</v>
+        <v>10.682666</v>
       </c>
       <c r="I10">
-        <v>0.2686626816352981</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="J10">
-        <v>0.268662681635298</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.759559666666667</v>
+        <v>8.947221000000001</v>
       </c>
       <c r="N10">
-        <v>23.278679</v>
+        <v>26.841663</v>
       </c>
       <c r="O10">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="P10">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="Q10">
-        <v>22.75770992353967</v>
+        <v>31.860057857062</v>
       </c>
       <c r="R10">
-        <v>204.819389311857</v>
+        <v>286.740520713558</v>
       </c>
       <c r="S10">
-        <v>0.03977295358421518</v>
+        <v>0.05490638441230547</v>
       </c>
       <c r="T10">
-        <v>0.03977295358421517</v>
+        <v>0.05490638441230547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.932861</v>
+        <v>3.560888666666667</v>
       </c>
       <c r="H11">
-        <v>8.798583000000001</v>
+        <v>10.682666</v>
       </c>
       <c r="I11">
-        <v>0.2686626816352981</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="J11">
-        <v>0.268662681635298</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>104.103916</v>
       </c>
       <c r="O11">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="P11">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="Q11">
-        <v>101.7741050612253</v>
+        <v>123.5674848800062</v>
       </c>
       <c r="R11">
-        <v>915.9669455510281</v>
+        <v>1112.107363920056</v>
       </c>
       <c r="S11">
-        <v>0.1778674906339417</v>
+        <v>0.2129513968908095</v>
       </c>
       <c r="T11">
-        <v>0.1778674906339417</v>
+        <v>0.2129513968908096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.932861</v>
+        <v>3.560888666666667</v>
       </c>
       <c r="H12">
-        <v>8.798583000000001</v>
+        <v>10.682666</v>
       </c>
       <c r="I12">
-        <v>0.2686626816352981</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="J12">
-        <v>0.268662681635298</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.578358333333332</v>
+        <v>14.549723</v>
       </c>
       <c r="N12">
-        <v>28.735075</v>
+        <v>43.649169</v>
       </c>
       <c r="O12">
-        <v>0.1827403706251221</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="P12">
-        <v>0.182740370625122</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="Q12">
-        <v>28.09199359985833</v>
+        <v>51.80994373383933</v>
       </c>
       <c r="R12">
-        <v>252.827942398725</v>
+        <v>466.289493604554</v>
       </c>
       <c r="S12">
-        <v>0.04909551801517354</v>
+        <v>0.08928724171791021</v>
       </c>
       <c r="T12">
-        <v>0.04909551801517352</v>
+        <v>0.08928724171791022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.932861</v>
+        <v>3.560888666666667</v>
       </c>
       <c r="H13">
-        <v>8.798583000000001</v>
+        <v>10.682666</v>
       </c>
       <c r="I13">
-        <v>0.2686626816352981</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="J13">
-        <v>0.268662681635298</v>
+        <v>0.3607204815780811</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.375896</v>
+        <v>0.5826356666666667</v>
       </c>
       <c r="N13">
-        <v>1.127688</v>
+        <v>1.747907</v>
       </c>
       <c r="O13">
-        <v>0.007171518538563155</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="P13">
-        <v>0.007171518538563154</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="Q13">
-        <v>1.102450718456</v>
+        <v>2.074700742229111</v>
       </c>
       <c r="R13">
-        <v>9.922056466104001</v>
+        <v>18.672306680062</v>
       </c>
       <c r="S13">
-        <v>0.001926719401967631</v>
+        <v>0.003575458557055858</v>
       </c>
       <c r="T13">
-        <v>0.00192671940196763</v>
+        <v>0.003575458557055859</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.133464333333333</v>
+        <v>2.916489666666667</v>
       </c>
       <c r="H14">
-        <v>12.400393</v>
+        <v>8.749468999999999</v>
       </c>
       <c r="I14">
-        <v>0.3786431106817516</v>
+        <v>0.2954424177665473</v>
       </c>
       <c r="J14">
-        <v>0.3786431106817515</v>
+        <v>0.2954424177665474</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.759559666666667</v>
+        <v>8.947221000000001</v>
       </c>
       <c r="N14">
-        <v>23.278679</v>
+        <v>26.841663</v>
       </c>
       <c r="O14">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="P14">
-        <v>0.1480404846036854</v>
+        <v>0.1522131046512825</v>
       </c>
       <c r="Q14">
-        <v>32.07386312453855</v>
+        <v>26.094477591883</v>
       </c>
       <c r="R14">
-        <v>288.664768120847</v>
+        <v>234.850298326947</v>
       </c>
       <c r="S14">
-        <v>0.05605450959717341</v>
+        <v>0.04497020765392739</v>
       </c>
       <c r="T14">
-        <v>0.05605450959717339</v>
+        <v>0.04497020765392739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.133464333333333</v>
+        <v>2.916489666666667</v>
       </c>
       <c r="H15">
-        <v>12.400393</v>
+        <v>8.749468999999999</v>
       </c>
       <c r="I15">
-        <v>0.3786431106817516</v>
+        <v>0.2954424177665473</v>
       </c>
       <c r="J15">
-        <v>0.3786431106817515</v>
+        <v>0.2954424177665474</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>104.103916</v>
       </c>
       <c r="O15">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="P15">
-        <v>0.6620476262326294</v>
+        <v>0.5903501679726892</v>
       </c>
       <c r="Q15">
-        <v>143.4366079154431</v>
+        <v>101.2059984245115</v>
       </c>
       <c r="R15">
-        <v>1290.929471238988</v>
+        <v>910.853985820604</v>
       </c>
       <c r="S15">
-        <v>0.2506797726161924</v>
+        <v>0.1744144809547387</v>
       </c>
       <c r="T15">
-        <v>0.2506797726161923</v>
+        <v>0.1744144809547387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.133464333333333</v>
+        <v>2.916489666666667</v>
       </c>
       <c r="H16">
-        <v>12.400393</v>
+        <v>8.749468999999999</v>
       </c>
       <c r="I16">
-        <v>0.3786431106817516</v>
+        <v>0.2954424177665473</v>
       </c>
       <c r="J16">
-        <v>0.3786431106817515</v>
+        <v>0.2954424177665474</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.578358333333332</v>
+        <v>14.549723</v>
       </c>
       <c r="N16">
-        <v>28.735075</v>
+        <v>43.649169</v>
       </c>
       <c r="O16">
-        <v>0.1827403706251221</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="P16">
-        <v>0.182740370625122</v>
+        <v>0.2475247352944754</v>
       </c>
       <c r="Q16">
-        <v>39.59180254271944</v>
+        <v>42.43411678236233</v>
       </c>
       <c r="R16">
-        <v>356.326222884475</v>
+        <v>381.907051041261</v>
       </c>
       <c r="S16">
-        <v>0.0691933823806324</v>
+        <v>0.07312930625242445</v>
       </c>
       <c r="T16">
-        <v>0.06919338238063238</v>
+        <v>0.07312930625242446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.133464333333333</v>
+        <v>2.916489666666667</v>
       </c>
       <c r="H17">
-        <v>12.400393</v>
+        <v>8.749468999999999</v>
       </c>
       <c r="I17">
-        <v>0.3786431106817516</v>
+        <v>0.2954424177665473</v>
       </c>
       <c r="J17">
-        <v>0.3786431106817515</v>
+        <v>0.2954424177665474</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.375896</v>
+        <v>0.5826356666666667</v>
       </c>
       <c r="N17">
-        <v>1.127688</v>
+        <v>1.747907</v>
       </c>
       <c r="O17">
-        <v>0.007171518538563155</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="P17">
-        <v>0.007171518538563154</v>
+        <v>0.009911992081552816</v>
       </c>
       <c r="Q17">
-        <v>1.553752709042667</v>
+        <v>1.699250901264778</v>
       </c>
       <c r="R17">
-        <v>13.983774381384</v>
+        <v>15.293258111383</v>
       </c>
       <c r="S17">
-        <v>0.002715446087753402</v>
+        <v>0.002928422905456836</v>
       </c>
       <c r="T17">
-        <v>0.002715446087753402</v>
+        <v>0.002928422905456837</v>
       </c>
     </row>
   </sheetData>
